--- a/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12211</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6530</v>
+        <v>7277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19712</v>
+        <v>19701</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.106196980699836</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05678591438414143</v>
+        <v>0.0632807288729547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1714244968995694</v>
+        <v>0.1713321476266734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>16087</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9674</v>
+        <v>9303</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24997</v>
+        <v>25902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1075828084810352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06469537612769038</v>
+        <v>0.06221145853951741</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1671671403127165</v>
+        <v>0.1732181314225813</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -786,19 +786,19 @@
         <v>28299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19232</v>
+        <v>19876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38283</v>
+        <v>40580</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1069803881414613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07270445117785698</v>
+        <v>0.07513803953390299</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1447254887199237</v>
+        <v>0.1534082425965875</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>102778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95277</v>
+        <v>95288</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108459</v>
+        <v>107712</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.893803019300164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8285755031004306</v>
+        <v>0.8286678523733269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9432140856158586</v>
+        <v>0.9367192711270454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>136</v>
@@ -836,19 +836,19 @@
         <v>133448</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124538</v>
+        <v>123633</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139861</v>
+        <v>140232</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8924171915189648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8328328596872834</v>
+        <v>0.8267818685774186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9353046238723096</v>
+        <v>0.9377885414604825</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>242</v>
@@ -857,19 +857,19 @@
         <v>236225</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226241</v>
+        <v>223944</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>245292</v>
+        <v>244648</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8930196118585387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8552745112800763</v>
+        <v>0.8465917574034124</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.927295548822143</v>
+        <v>0.9248619604660969</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6583</v>
+        <v>5945</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19516</v>
+        <v>18017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08041818717471072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04512677293442556</v>
+        <v>0.04074908446319182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1337722217178358</v>
+        <v>0.1234950965266298</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -982,19 +982,19 @@
         <v>27238</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18807</v>
+        <v>17612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41236</v>
+        <v>39083</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1491007828656665</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1029510495015738</v>
+        <v>0.09641152662898696</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.225728898986921</v>
+        <v>0.2139450780153747</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -1003,19 +1003,19 @@
         <v>38970</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28306</v>
+        <v>28350</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53400</v>
+        <v>53092</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1186047806950154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08615043177638586</v>
+        <v>0.08628485234508403</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1625240430803721</v>
+        <v>0.1615860220473216</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>134157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126373</v>
+        <v>127872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139306</v>
+        <v>139944</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9195818128252893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8662277782821627</v>
+        <v>0.8765049034733702</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9548732270655743</v>
+        <v>0.9592509155368081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>146</v>
@@ -1053,19 +1053,19 @@
         <v>155442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>141444</v>
+        <v>143597</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>163873</v>
+        <v>165068</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8508992171343335</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7742711010130789</v>
+        <v>0.7860549219846252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8970489504984261</v>
+        <v>0.903588473371013</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>280</v>
@@ -1074,19 +1074,19 @@
         <v>289598</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>275168</v>
+        <v>275476</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>300262</v>
+        <v>300218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8813952193049847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.837475956919628</v>
+        <v>0.8384139779526785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9138495682236142</v>
+        <v>0.9137151476549159</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3712</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8610</v>
+        <v>8733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03556245304029708</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008804736925904375</v>
+        <v>0.008825308556005778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08249322489564227</v>
+        <v>0.0836754267635713</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>15896</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9150</v>
+        <v>9103</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24309</v>
+        <v>25273</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.117015073938723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06735535837878776</v>
+        <v>0.06700659004468708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1789434800139866</v>
+        <v>0.1860380462687449</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1220,19 +1220,19 @@
         <v>19608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11737</v>
+        <v>12226</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29778</v>
+        <v>29386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0816255795605474</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04886073933068581</v>
+        <v>0.05089416926542828</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1239627600977584</v>
+        <v>0.1223301732710417</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>100659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95761</v>
+        <v>95638</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103452</v>
+        <v>103450</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.964437546959703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9175067751043579</v>
+        <v>0.9163245732364287</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911952630740957</v>
+        <v>0.9911746914439942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -1270,19 +1270,19 @@
         <v>119954</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111541</v>
+        <v>110577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126700</v>
+        <v>126747</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.882984926061277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8210565199860135</v>
+        <v>0.8139619537312544</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9326446416212122</v>
+        <v>0.9329934099553129</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>223</v>
@@ -1291,19 +1291,19 @@
         <v>220613</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>210443</v>
+        <v>210835</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>228484</v>
+        <v>227995</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9183744204394526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8760372399022416</v>
+        <v>0.8776698267289583</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9511392606693142</v>
+        <v>0.9491058307345716</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>12245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7071</v>
+        <v>6664</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19702</v>
+        <v>19303</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08924112921677953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05153393322264357</v>
+        <v>0.0485673519623234</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1435802192508022</v>
+        <v>0.1406739993707511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1416,19 +1416,19 @@
         <v>31873</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22467</v>
+        <v>22031</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43915</v>
+        <v>43066</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1526671387213008</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.107612989967315</v>
+        <v>0.105522121406747</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.210342059909285</v>
+        <v>0.2062779379456989</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1437,19 +1437,19 @@
         <v>44119</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32935</v>
+        <v>32689</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58219</v>
+        <v>57720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.12751314264503</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09518840183714516</v>
+        <v>0.09447876046819845</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1682651067291829</v>
+        <v>0.1668234314827357</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>124972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117515</v>
+        <v>117914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130146</v>
+        <v>130553</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9107588707832205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8564197807491978</v>
+        <v>0.8593260006292491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9484660667773565</v>
+        <v>0.9514326480376766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -1487,19 +1487,19 @@
         <v>176904</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>164862</v>
+        <v>165711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>186310</v>
+        <v>186746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8473328612786992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7896579400907151</v>
+        <v>0.7937220620543015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8923870100326851</v>
+        <v>0.8944778785932529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>313</v>
@@ -1508,19 +1508,19 @@
         <v>301876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>287776</v>
+        <v>288275</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>313060</v>
+        <v>313306</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.87248685735497</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8317348932708172</v>
+        <v>0.8331765685172641</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9048115981628548</v>
+        <v>0.9055212395318009</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>39901</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29873</v>
+        <v>31162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52652</v>
+        <v>53936</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07940976007269224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05945337702034552</v>
+        <v>0.06201777712561553</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.104787350763361</v>
+        <v>0.1073428281719093</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -1633,19 +1633,19 @@
         <v>91095</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1345882867724461</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1654,19 +1654,19 @@
         <v>130996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111956</v>
+        <v>110431</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155437</v>
+        <v>153159</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1110784540414075</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09493386779726039</v>
+        <v>0.0936404206635955</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1318035758450402</v>
+        <v>0.1298715026348456</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>462565</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>449814</v>
+        <v>448530</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472593</v>
+        <v>471304</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9205902399273078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8952126492366392</v>
+        <v>0.8926571718280908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9405466229796545</v>
+        <v>0.9379822228743845</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>578</v>
@@ -1704,19 +1704,19 @@
         <v>585747</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>564887</v>
+        <v>565643</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>603010</v>
+        <v>601344</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8654117132275538</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8345923575381898</v>
+        <v>0.8357088243124026</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8909174410347418</v>
+        <v>0.8884559552910377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1058</v>
@@ -1725,19 +1725,19 @@
         <v>1048312</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1023871</v>
+        <v>1026149</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1067352</v>
+        <v>1068877</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8889215459585925</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8681964241549595</v>
+        <v>0.8701284973651543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9050661322027396</v>
+        <v>0.9063595793364043</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>12330</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6376</v>
+        <v>6890</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20867</v>
+        <v>20286</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08835854647382903</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04568846750555194</v>
+        <v>0.0493711230396045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1495311534661429</v>
+        <v>0.1453712996309324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -2090,19 +2090,19 @@
         <v>41541</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30931</v>
+        <v>31277</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53715</v>
+        <v>52633</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2490658878620442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1854498570952555</v>
+        <v>0.1875253032536149</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3220584079477624</v>
+        <v>0.3155707397609149</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -2111,19 +2111,19 @@
         <v>53871</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41119</v>
+        <v>41661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68165</v>
+        <v>70406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.17585728329031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1342280956879153</v>
+        <v>0.1359975735377224</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2225171649392763</v>
+        <v>0.2298356487857941</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>127217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118680</v>
+        <v>119261</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>133171</v>
+        <v>132657</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.911641453526171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.850468846533857</v>
+        <v>0.8546287003690672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.954311532494448</v>
+        <v>0.9506288769603954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>119</v>
@@ -2161,19 +2161,19 @@
         <v>125246</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113072</v>
+        <v>114154</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135856</v>
+        <v>135510</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7509341121379558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6779415920522377</v>
+        <v>0.6844292602390851</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8145501429047446</v>
+        <v>0.8124746967463852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>236</v>
@@ -2182,19 +2182,19 @@
         <v>252463</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238169</v>
+        <v>235928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>265215</v>
+        <v>264673</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8241427167096901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7774828350607238</v>
+        <v>0.7701643512142059</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8657719043120848</v>
+        <v>0.8640024264622777</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>32422</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23232</v>
+        <v>22106</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43696</v>
+        <v>44752</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2093388241702551</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1499995183905238</v>
+        <v>0.1427300926295421</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2821329420312384</v>
+        <v>0.2889522033089465</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -2307,19 +2307,19 @@
         <v>62214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50124</v>
+        <v>49577</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76711</v>
+        <v>75356</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3250144001130112</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2618559771606326</v>
+        <v>0.2589947553342863</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4007468273127298</v>
+        <v>0.3936671272955238</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -2328,19 +2328,19 @@
         <v>94636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79041</v>
+        <v>78716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112043</v>
+        <v>111532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2732797458944745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2282451635276952</v>
+        <v>0.2273079996948999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3235441038671292</v>
+        <v>0.3220695952629855</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>122456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>111182</v>
+        <v>110126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>131646</v>
+        <v>132772</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7906611758297449</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7178670579687617</v>
+        <v>0.7110477966910534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8500004816094763</v>
+        <v>0.8572699073704578</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>121</v>
@@ -2378,19 +2378,19 @@
         <v>129206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114709</v>
+        <v>116064</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>141296</v>
+        <v>141843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6749855998869888</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5992531726872702</v>
+        <v>0.6063328727044761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7381440228393674</v>
+        <v>0.7410052446657135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>230</v>
@@ -2399,19 +2399,19 @@
         <v>251662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>234255</v>
+        <v>234766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>267257</v>
+        <v>267582</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7267202541055255</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6764558961328708</v>
+        <v>0.6779304047370146</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7717548364723049</v>
+        <v>0.7726920003051001</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>15168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7690</v>
+        <v>7806</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26169</v>
+        <v>25355</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1464079453176662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07422817104650774</v>
+        <v>0.07535369362559055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2526044330424062</v>
+        <v>0.2447437110848218</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -2524,19 +2524,19 @@
         <v>40123</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29311</v>
+        <v>28947</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52813</v>
+        <v>50847</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2845245150595424</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2078536977019124</v>
+        <v>0.2052736118988063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3745125607978737</v>
+        <v>0.3605662203647664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -2545,19 +2545,19 @@
         <v>55291</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41763</v>
+        <v>42921</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70637</v>
+        <v>69953</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2260304744911298</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1707282253942797</v>
+        <v>0.1754614112619025</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2887669458221876</v>
+        <v>0.2859692622554875</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>88430</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>77429</v>
+        <v>78243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95908</v>
+        <v>95792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8535920546823339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7473955669575938</v>
+        <v>0.7552562889151765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9257718289534923</v>
+        <v>0.9246463063744094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -2595,19 +2595,19 @@
         <v>100896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88206</v>
+        <v>90172</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111708</v>
+        <v>112072</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7154754849404577</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6254874392021268</v>
+        <v>0.6394337796352336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7921463022980878</v>
+        <v>0.7947263881011938</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>172</v>
@@ -2616,19 +2616,19 @@
         <v>189326</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>173980</v>
+        <v>174664</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>202854</v>
+        <v>201696</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7739695255088702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7112330541778124</v>
+        <v>0.7140307377445124</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8292717746057204</v>
+        <v>0.8245385887380975</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>23615</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15015</v>
+        <v>14815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34110</v>
+        <v>35263</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.146121912514661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09290699176117323</v>
+        <v>0.09167213817037127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.211057573669481</v>
+        <v>0.2181927322220509</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -2741,19 +2741,19 @@
         <v>48572</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37521</v>
+        <v>37424</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63082</v>
+        <v>62128</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1992679925637191</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1539338584473558</v>
+        <v>0.1535357584944764</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2587991666165888</v>
+        <v>0.2548851644655833</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -2762,19 +2762,19 @@
         <v>72187</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55696</v>
+        <v>57536</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88587</v>
+        <v>89216</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1780792898708414</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1373987340672333</v>
+        <v>0.1419375251310344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2185370432870681</v>
+        <v>0.2200898964181624</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>137998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127503</v>
+        <v>126350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146598</v>
+        <v>146798</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.853878087485339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7889424263305189</v>
+        <v>0.7818072677779493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9070930082388268</v>
+        <v>0.9083278618296287</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>185</v>
@@ -2812,19 +2812,19 @@
         <v>195178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>180668</v>
+        <v>181622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>206229</v>
+        <v>206326</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8007320074362809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7412008333834107</v>
+        <v>0.7451148355344169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8460661415526441</v>
+        <v>0.8464642415055239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>312</v>
@@ -2833,19 +2833,19 @@
         <v>333176</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>316776</v>
+        <v>316147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>349667</v>
+        <v>347827</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8219207101291586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.781462956712932</v>
+        <v>0.7799101035818375</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.862601265932767</v>
+        <v>0.8580624748689656</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>83535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1492664998936019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>176</v>
@@ -2958,19 +2958,19 @@
         <v>192450</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>168720</v>
+        <v>166780</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217140</v>
+        <v>215353</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2590260808669191</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2270864013637616</v>
+        <v>0.224475628821827</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2922577494977263</v>
+        <v>0.2898526126371199</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>248</v>
@@ -2979,19 +2979,19 @@
         <v>275985</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>249496</v>
+        <v>247130</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>311277</v>
+        <v>306910</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2118704236422067</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1915354371161057</v>
+        <v>0.1897191808320553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.238964065513868</v>
+        <v>0.2356114363057071</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>476102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456910</v>
+        <v>456653</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>492779</v>
+        <v>492602</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8507335001063981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8164405996656411</v>
+        <v>0.8159799625183749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8805338025433268</v>
+        <v>0.8802165718382683</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>518</v>
@@ -3029,19 +3029,19 @@
         <v>550525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>525835</v>
+        <v>527622</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>574255</v>
+        <v>576195</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7409739191330809</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7077422505022735</v>
+        <v>0.71014738736288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7729135986362383</v>
+        <v>0.7755243711781729</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>950</v>
@@ -3050,19 +3050,19 @@
         <v>1026627</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>991335</v>
+        <v>995702</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1053116</v>
+        <v>1055482</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7881295763577932</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.761035934486132</v>
+        <v>0.7643885636942933</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8084645628838943</v>
+        <v>0.8102808191679449</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>19932</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13289</v>
+        <v>13005</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28054</v>
+        <v>29047</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1457689051419104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09718815774029398</v>
+        <v>0.09511009122952134</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2051737536805863</v>
+        <v>0.2124355475221253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -3415,19 +3415,19 @@
         <v>40339</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29960</v>
+        <v>29164</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53085</v>
+        <v>52019</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2326498832789861</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1727890188048415</v>
+        <v>0.1681982876003433</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3061565182068438</v>
+        <v>0.3000083035077108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -3436,19 +3436,19 @@
         <v>60271</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46393</v>
+        <v>47042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75343</v>
+        <v>75808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1943440737841638</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1495930727213401</v>
+        <v>0.1516882325386992</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.242943508695988</v>
+        <v>0.2444447547622947</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>116802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108680</v>
+        <v>107687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123445</v>
+        <v>123729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8542310948580897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7948262463194138</v>
+        <v>0.7875644524778748</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9028118422597061</v>
+        <v>0.9048899087704788</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>122</v>
@@ -3486,19 +3486,19 @@
         <v>133052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>120306</v>
+        <v>121372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143431</v>
+        <v>144227</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7673501167210138</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6938434817931561</v>
+        <v>0.6999916964922891</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8272109811951583</v>
+        <v>0.8318017123996567</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>247</v>
@@ -3507,19 +3507,19 @@
         <v>249854</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>234782</v>
+        <v>234317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263732</v>
+        <v>263083</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8056559262158363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.757056491304012</v>
+        <v>0.7555552452377051</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.85040692727866</v>
+        <v>0.8483117674613008</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>21064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14171</v>
+        <v>13827</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30892</v>
+        <v>29376</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1277084497171226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08591729747127849</v>
+        <v>0.08382905035030994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1872899967705684</v>
+        <v>0.1781007303489722</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -3632,19 +3632,19 @@
         <v>40545</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29382</v>
+        <v>28945</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54734</v>
+        <v>54124</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1849990266622731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1340646556415049</v>
+        <v>0.1320695874557125</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2497416975320736</v>
+        <v>0.2469597410120713</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -3653,19 +3653,19 @@
         <v>61609</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47560</v>
+        <v>47441</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79058</v>
+        <v>76335</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1603974708770716</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1238206487394367</v>
+        <v>0.1235096193649032</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2058248810645402</v>
+        <v>0.1987352234692807</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>143877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>134049</v>
+        <v>135565</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>150770</v>
+        <v>151114</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8722915502828774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8127100032294312</v>
+        <v>0.8218992696510276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9140827025287215</v>
+        <v>0.9161709496496898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>151</v>
@@ -3703,19 +3703,19 @@
         <v>178618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>164429</v>
+        <v>165039</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>189781</v>
+        <v>190218</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8150009733377269</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7502583024679265</v>
+        <v>0.7530402589879285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8659353443584953</v>
+        <v>0.8679304125442874</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>303</v>
@@ -3724,19 +3724,19 @@
         <v>322495</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>305046</v>
+        <v>307769</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>336544</v>
+        <v>336663</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8396025291229283</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7941751189354598</v>
+        <v>0.8012647765307193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8761793512605633</v>
+        <v>0.876490380635097</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>12436</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6616</v>
+        <v>7113</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19613</v>
+        <v>20895</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1081076176236308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05751119592072982</v>
+        <v>0.06183451213099147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1704958250378219</v>
+        <v>0.1816418909853394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3849,19 +3849,19 @@
         <v>36532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25944</v>
+        <v>25382</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48917</v>
+        <v>47984</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2561915272235184</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1819407593754024</v>
+        <v>0.1780028659041367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3430444683628105</v>
+        <v>0.3365017414894744</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3870,19 +3870,19 @@
         <v>48968</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36643</v>
+        <v>37172</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63655</v>
+        <v>64320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1900704637011331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1422307669792326</v>
+        <v>0.144282574736931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2470784073801301</v>
+        <v>0.2496606902203068</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>102599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95422</v>
+        <v>94140</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108419</v>
+        <v>107922</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8918923823763693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8295041749621778</v>
+        <v>0.818358109014661</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9424888040792702</v>
+        <v>0.9381654878690087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>89</v>
@@ -3920,19 +3920,19 @@
         <v>106064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93679</v>
+        <v>94612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116652</v>
+        <v>117214</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7438084727764815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6569555316371891</v>
+        <v>0.6634982585105256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8180592406245963</v>
+        <v>0.8219971340958629</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>190</v>
@@ -3941,19 +3941,19 @@
         <v>208663</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>193976</v>
+        <v>193311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>220988</v>
+        <v>220459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8099295362988669</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7529215926198698</v>
+        <v>0.7503393097796931</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8577692330207672</v>
+        <v>0.855717425263069</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>16666</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9828</v>
+        <v>10607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25628</v>
+        <v>25895</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09544295080975176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05628555713577137</v>
+        <v>0.06074217147630889</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1467639851876905</v>
+        <v>0.1482926173952621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -4066,19 +4066,19 @@
         <v>51333</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36946</v>
+        <v>37053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68680</v>
+        <v>65624</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2114372138724237</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1521781279342979</v>
+        <v>0.1526205478336773</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2828902138528367</v>
+        <v>0.2703009122651696</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -4087,19 +4087,19 @@
         <v>67999</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53383</v>
+        <v>52191</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85742</v>
+        <v>84620</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1629112330883586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1278946527801708</v>
+        <v>0.1250392742058193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.205420113775464</v>
+        <v>0.2027314138993704</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>157952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148990</v>
+        <v>148723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>164790</v>
+        <v>164011</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9045570491902483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8532360148123095</v>
+        <v>0.851707382604738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9437144428642286</v>
+        <v>0.9392578285236911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>160</v>
@@ -4137,19 +4137,19 @@
         <v>191448</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174101</v>
+        <v>177157</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>205835</v>
+        <v>205728</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7885627861275762</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7171097861471637</v>
+        <v>0.7296990877348303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8478218720657021</v>
+        <v>0.847379452166322</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>332</v>
@@ -4158,19 +4158,19 @@
         <v>349401</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>331658</v>
+        <v>332780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>364017</v>
+        <v>365209</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8370887669116414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.794579886224536</v>
+        <v>0.7972685861006296</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8721053472198291</v>
+        <v>0.8749607257941807</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>70098</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55548</v>
+        <v>56185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84939</v>
+        <v>86038</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1185435682155047</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09393714285838607</v>
+        <v>0.0950147842748811</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1436416754500486</v>
+        <v>0.1455002202359778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -4283,19 +4283,19 @@
         <v>168749</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>143467</v>
+        <v>145972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194011</v>
+        <v>195591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.216920463125211</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1844212478486017</v>
+        <v>0.1876409181414094</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2493932630837101</v>
+        <v>0.2514244434300952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>210</v>
@@ -4304,19 +4304,19 @@
         <v>238847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>210567</v>
+        <v>211551</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>267814</v>
+        <v>270154</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1744354311300117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.153781921885389</v>
+        <v>0.1545002727097729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1955905141284803</v>
+        <v>0.1972995935479556</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>521230</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>506389</v>
+        <v>505290</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>535780</v>
+        <v>535143</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8814564317844953</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8563583245499513</v>
+        <v>0.8544997797640222</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9060628571416139</v>
+        <v>0.9049852157251188</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>522</v>
@@ -4354,19 +4354,19 @@
         <v>609182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>583920</v>
+        <v>582340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>634464</v>
+        <v>631959</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7830795368747889</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7506067369162895</v>
+        <v>0.7485755565699047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.815578752151398</v>
+        <v>0.8123590818585906</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1072</v>
@@ -4375,19 +4375,19 @@
         <v>1130412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1101445</v>
+        <v>1099105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1158692</v>
+        <v>1157708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8255645688699883</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8044094858715196</v>
+        <v>0.8027004064520443</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8462180781146109</v>
+        <v>0.8454997272902272</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>20468</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14622</v>
+        <v>14605</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28413</v>
+        <v>28043</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1264929946503343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09036580235181463</v>
+        <v>0.09026111580641183</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1755969179578853</v>
+        <v>0.1733107150488216</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -4740,19 +4740,19 @@
         <v>48188</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39956</v>
+        <v>40313</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56206</v>
+        <v>56400</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.254234780020652</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2108059439067744</v>
+        <v>0.2126900429074424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2965387167971181</v>
+        <v>0.2975607195710329</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -4761,19 +4761,19 @@
         <v>68656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59021</v>
+        <v>58483</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80338</v>
+        <v>79559</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1954053731499482</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1679831724833969</v>
+        <v>0.1664513605848457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2286555455897782</v>
+        <v>0.2264370334432795</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>141340</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>133395</v>
+        <v>133765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147186</v>
+        <v>147203</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8735070053496656</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8244030820421148</v>
+        <v>0.8266892849511789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9096341976481852</v>
+        <v>0.9097388841935882</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -4811,19 +4811,19 @@
         <v>141353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>133335</v>
+        <v>133141</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>149585</v>
+        <v>149228</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7457652199793482</v>
+        <v>0.7457652199793481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7034612832028819</v>
+        <v>0.7024392804289671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7891940560932257</v>
+        <v>0.7873099570925575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>544</v>
@@ -4832,19 +4832,19 @@
         <v>282694</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>271012</v>
+        <v>271791</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292329</v>
+        <v>292867</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8045946268500517</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.771344454410222</v>
+        <v>0.7735629665567205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8320168275166032</v>
+        <v>0.8335486394151543</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>27196</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19753</v>
+        <v>19898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35658</v>
+        <v>35577</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1526112549955817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.110842370908188</v>
+        <v>0.111655820933183</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2000958728824508</v>
+        <v>0.1996438243910254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -4957,19 +4957,19 @@
         <v>56654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47700</v>
+        <v>47569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66115</v>
+        <v>66264</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2357177841949706</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1984646914644897</v>
+        <v>0.1979186154447049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2750817006301109</v>
+        <v>0.2757006591724765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -4978,19 +4978,19 @@
         <v>83850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71850</v>
+        <v>71133</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97982</v>
+        <v>96003</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2003339416550598</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1716632685517054</v>
+        <v>0.1699508694469218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2340991917685668</v>
+        <v>0.22937047434998</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>151008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>142546</v>
+        <v>142627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158451</v>
+        <v>158306</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8473887450044182</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7999041271175491</v>
+        <v>0.8003561756089747</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8891576290918121</v>
+        <v>0.8883441790668171</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>339</v>
@@ -5028,19 +5028,19 @@
         <v>183692</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>174231</v>
+        <v>174082</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192646</v>
+        <v>192777</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7642822158050294</v>
+        <v>0.7642822158050295</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7249182993698894</v>
+        <v>0.7242993408275235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8015353085355105</v>
+        <v>0.802081384555295</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>551</v>
@@ -5049,19 +5049,19 @@
         <v>334700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>320568</v>
+        <v>322547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>346700</v>
+        <v>347417</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7996660583449403</v>
+        <v>0.7996660583449402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7659008082314331</v>
+        <v>0.7706295256500202</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8283367314482946</v>
+        <v>0.8300491305530781</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>17435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11199</v>
+        <v>11088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24866</v>
+        <v>25851</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1091169764893903</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07008957827849717</v>
+        <v>0.06939627281391526</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1556207690881532</v>
+        <v>0.1617869142926363</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -5174,19 +5174,19 @@
         <v>36325</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28391</v>
+        <v>28912</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44830</v>
+        <v>46156</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2084052558908176</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1628857045779208</v>
+        <v>0.1658745931070187</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2571991363062726</v>
+        <v>0.2648045366982579</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -5195,19 +5195,19 @@
         <v>53760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43332</v>
+        <v>43794</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65850</v>
+        <v>65961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1609181620159316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1297037715386979</v>
+        <v>0.1310876774740741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1971054732532446</v>
+        <v>0.19743629259163</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>142350</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>134919</v>
+        <v>133934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>148586</v>
+        <v>148697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8908830235106096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8443792309118466</v>
+        <v>0.8382130857073639</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9299104217215028</v>
+        <v>0.930603727186085</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>231</v>
@@ -5245,19 +5245,19 @@
         <v>137976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>129471</v>
+        <v>128145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145910</v>
+        <v>145389</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7915947441091823</v>
+        <v>0.7915947441091824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7428008636937277</v>
+        <v>0.735195463301742</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8371142954220793</v>
+        <v>0.8341254068929812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>403</v>
@@ -5266,19 +5266,19 @@
         <v>280325</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>268235</v>
+        <v>268124</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>290753</v>
+        <v>290291</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8390818379840683</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8028945267467554</v>
+        <v>0.80256370740837</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8702962284613019</v>
+        <v>0.868912322525926</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>25265</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18226</v>
+        <v>18463</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33664</v>
+        <v>33201</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.117822565160574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08499291252206508</v>
+        <v>0.08609981705925529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1569863363864909</v>
+        <v>0.1548278054654839</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -5391,19 +5391,19 @@
         <v>65416</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55043</v>
+        <v>55560</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77047</v>
+        <v>76101</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2233019520890742</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1878953542981261</v>
+        <v>0.189657230586415</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2630078876244323</v>
+        <v>0.2597768180703268</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>150</v>
@@ -5412,19 +5412,19 @@
         <v>90681</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77796</v>
+        <v>77217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103788</v>
+        <v>104427</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1787231070358123</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1533284402703743</v>
+        <v>0.1521860137432305</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2045561842998265</v>
+        <v>0.2058141713170444</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>189171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180772</v>
+        <v>181235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196210</v>
+        <v>195973</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8821774348394259</v>
+        <v>0.8821774348394258</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8430136636135095</v>
+        <v>0.845172194534516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9150070874779349</v>
+        <v>0.9139001829407446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>410</v>
@@ -5462,19 +5462,19 @@
         <v>227531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>215900</v>
+        <v>216846</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>237904</v>
+        <v>237387</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7766980479109259</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7369921123755678</v>
+        <v>0.7402231819296732</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.812104645701874</v>
+        <v>0.810342769413585</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>696</v>
@@ -5483,19 +5483,19 @@
         <v>416702</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>403595</v>
+        <v>402956</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>429587</v>
+        <v>430166</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8212768929641876</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7954438157001736</v>
+        <v>0.7941858286829557</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8466715597296259</v>
+        <v>0.8478139862567695</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>90364</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76793</v>
+        <v>77903</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>107061</v>
+        <v>108281</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1265191755149686</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.107518593019347</v>
+        <v>0.1090724252550989</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1498971791544236</v>
+        <v>0.1516048100562587</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>386</v>
@@ -5608,19 +5608,19 @@
         <v>206583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188855</v>
+        <v>188566</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>225571</v>
+        <v>227296</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2302692797177392</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2105090839735098</v>
+        <v>0.2101863468184201</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2514352744746131</v>
+        <v>0.2533576031726413</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>526</v>
@@ -5629,19 +5629,19 @@
         <v>296947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>273440</v>
+        <v>274051</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>321450</v>
+        <v>321807</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1842824470834792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1696941726477344</v>
+        <v>0.1700733049316157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1994889020732241</v>
+        <v>0.1997102230548681</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>623868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>607171</v>
+        <v>605951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>637439</v>
+        <v>636329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8734808244850314</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8501028208455765</v>
+        <v>0.8483951899437413</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.892481406980653</v>
+        <v>0.8909275747449011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1310</v>
@@ -5679,19 +5679,19 @@
         <v>690552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>671564</v>
+        <v>669839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>708280</v>
+        <v>708569</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7697307202822607</v>
+        <v>0.7697307202822609</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.748564725525387</v>
+        <v>0.7466423968273588</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7894909160264902</v>
+        <v>0.7898136531815799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2194</v>
@@ -5700,19 +5700,19 @@
         <v>1314421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1289918</v>
+        <v>1289561</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1337928</v>
+        <v>1337317</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8157175529165208</v>
+        <v>0.8157175529165207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8005110979267761</v>
+        <v>0.8002897769451318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.830305827352266</v>
+        <v>0.8299266950683842</v>
       </c>
     </row>
     <row r="18">
